--- a/star/Atlantic_Central_Star.xlsx
+++ b/star/Atlantic_Central_Star.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f5506be264ea6d1/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="357" documentId="11_AD4DBB64A54DDB1B405E38E25DDA1A3D4E90DF26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{269D6B09-1C89-4D98-ABD6-C0762FB2FD8F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF21E679-3A74-4173-B7F2-625CF3056D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="3870" windowWidth="16920" windowHeight="10450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="48">
-  <si>
-    <t>波士頓塞爾提克 Boston Celtics</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="47">
   <si>
     <t>出賽</t>
   </si>
@@ -245,10 +242,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,51 +507,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A2:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
       </c>
       <c r="B3">
         <v>963</v>
@@ -582,9 +565,9 @@
         <v>14522</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>897</v>
@@ -608,9 +591,9 @@
         <v>21791</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>1343</v>
@@ -634,43 +617,43 @@
         <v>26397</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>6</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>1243</v>
@@ -694,9 +677,9 @@
         <v>30026</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>1391</v>
@@ -720,9 +703,9 @@
         <v>17529</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>781</v>
@@ -746,42 +729,42 @@
         <v>12884</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>6</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>7</v>
       </c>
-      <c r="H12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>825</v>
@@ -805,9 +788,9 @@
         <v>15581</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>1183</v>
@@ -831,9 +814,9 @@
         <v>24815</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>650</v>
@@ -857,41 +840,41 @@
         <v>12183</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
         <v>5</v>
       </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>6</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>7</v>
       </c>
-      <c r="H17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>1196</v>
@@ -915,9 +898,9 @@
         <v>11729</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>914</v>
@@ -941,9 +924,9 @@
         <v>24368</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>1045</v>
@@ -967,42 +950,42 @@
         <v>31419</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
         <v>5</v>
       </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>6</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>7</v>
       </c>
-      <c r="H22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>1048</v>
@@ -1026,9 +1009,9 @@
         <v>15475</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>893</v>
@@ -1052,9 +1035,9 @@
         <v>17189</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>1541</v>
@@ -1078,42 +1061,42 @@
         <v>25728</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
         <v>5</v>
       </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>6</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>7</v>
       </c>
-      <c r="H27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>1072</v>
@@ -1137,9 +1120,9 @@
         <v>32292</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>911</v>
@@ -1163,9 +1146,9 @@
         <v>6683</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>1178</v>
@@ -1189,43 +1172,43 @@
         <v>18940</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
         <v>5</v>
       </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>6</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>7</v>
       </c>
-      <c r="H32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>1383</v>
@@ -1249,9 +1232,9 @@
         <v>37501</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>831</v>
@@ -1275,9 +1258,9 @@
         <v>14495</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>629</v>
@@ -1301,42 +1284,42 @@
         <v>14537</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
         <v>5</v>
       </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>6</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>7</v>
       </c>
-      <c r="H37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>979</v>
@@ -1360,9 +1343,9 @@
         <v>18822</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>1068</v>
@@ -1386,9 +1369,9 @@
         <v>6254</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>1026</v>
@@ -1412,42 +1395,42 @@
         <v>17137</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
         <v>5</v>
       </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>6</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>7</v>
       </c>
-      <c r="H42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43">
         <v>1389</v>
@@ -1471,9 +1454,9 @@
         <v>25279</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44">
         <v>991</v>
@@ -1497,9 +1480,9 @@
         <v>13058</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45">
         <v>943</v>
@@ -1523,40 +1506,40 @@
         <v>13858</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" t="s">
-        <v>7</v>
-      </c>
-      <c r="H47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>45</v>
       </c>
       <c r="B48">
         <v>767</v>
@@ -1580,9 +1563,9 @@
         <v>11931</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49">
         <v>676</v>
@@ -1606,9 +1589,9 @@
         <v>14962</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50">
         <v>688</v>
@@ -1633,15 +1616,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A11:C11"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/star/Atlantic_Central_Star.xlsx
+++ b/star/Atlantic_Central_Star.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF21E679-3A74-4173-B7F2-625CF3056D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196CB7CC-4955-4C1F-927D-F7DB3C268B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="48">
   <si>
     <t>出賽</t>
   </si>
@@ -177,6 +177,10 @@
   </si>
   <si>
     <t>Glenn Robinson</t>
+  </si>
+  <si>
+    <t>罰球命中率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -219,11 +223,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,1124 +508,1117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H50"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>963</v>
+      </c>
+      <c r="C2">
+        <v>0.44</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
+      <c r="E2">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="F2">
+        <v>21620</v>
+      </c>
+      <c r="G2">
+        <v>4100</v>
+      </c>
+      <c r="H2">
+        <v>14522</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>963</v>
+        <v>897</v>
       </c>
       <c r="C3">
-        <v>0.44</v>
+        <v>0.496</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>37.6</v>
       </c>
       <c r="E3">
-        <v>0.56100000000000005</v>
+        <v>88.6</v>
       </c>
       <c r="F3">
-        <v>21620</v>
+        <v>8974</v>
       </c>
       <c r="G3">
-        <v>4100</v>
+        <v>5695</v>
       </c>
       <c r="H3">
-        <v>14522</v>
+        <v>21791</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>897</v>
+        <v>1343</v>
       </c>
       <c r="C4">
-        <v>0.496</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="D4">
-        <v>37.6</v>
+        <v>0.37</v>
       </c>
       <c r="E4">
-        <v>88.6</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="F4">
-        <v>8974</v>
+        <v>7527</v>
       </c>
       <c r="G4">
-        <v>5695</v>
+        <v>4708</v>
       </c>
       <c r="H4">
-        <v>21791</v>
+        <v>26397</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>1343</v>
-      </c>
-      <c r="C5">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="D5">
-        <v>0.37</v>
-      </c>
-      <c r="E5">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="F5">
-        <v>7527</v>
-      </c>
-      <c r="G5">
-        <v>4708</v>
-      </c>
-      <c r="H5">
-        <v>26397</v>
-      </c>
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1243</v>
+      </c>
+      <c r="C7">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="F7">
+        <v>10525</v>
+      </c>
+      <c r="G7">
+        <v>5176</v>
+      </c>
+      <c r="H7">
+        <v>30026</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>1243</v>
+        <v>1391</v>
       </c>
       <c r="C8">
-        <v>0.50600000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
-        <v>0.29799999999999999</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="E8">
-        <v>0.77700000000000002</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="F8">
-        <v>10525</v>
+        <v>8725</v>
       </c>
       <c r="G8">
-        <v>5176</v>
+        <v>12091</v>
       </c>
       <c r="H8">
-        <v>30026</v>
+        <v>17529</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>1391</v>
+        <v>781</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="D9">
-        <v>0.34899999999999998</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="E9">
-        <v>0.78500000000000003</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="F9">
-        <v>8725</v>
+        <v>7232</v>
       </c>
       <c r="G9">
-        <v>12091</v>
+        <v>1985</v>
       </c>
       <c r="H9">
-        <v>17529</v>
+        <v>12884</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>781</v>
-      </c>
-      <c r="C10">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="D10">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="E10">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="F10">
-        <v>7232</v>
-      </c>
-      <c r="G10">
-        <v>1985</v>
-      </c>
-      <c r="H10">
-        <v>12884</v>
-      </c>
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>825</v>
+      </c>
+      <c r="C12">
+        <v>0.49</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" t="s">
-        <v>7</v>
+      <c r="E12">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="F12">
+        <v>1926</v>
+      </c>
+      <c r="G12">
+        <v>5040</v>
+      </c>
+      <c r="H12">
+        <v>15581</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>825</v>
+        <v>1183</v>
       </c>
       <c r="C13">
-        <v>0.49</v>
+        <v>0.504</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.152</v>
       </c>
       <c r="E13">
-        <v>0.78600000000000003</v>
+        <v>0.74</v>
       </c>
       <c r="F13">
-        <v>1926</v>
+        <v>11607</v>
       </c>
       <c r="G13">
-        <v>5040</v>
+        <v>2215</v>
       </c>
       <c r="H13">
-        <v>15581</v>
+        <v>24815</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>1183</v>
+        <v>650</v>
       </c>
       <c r="C14">
-        <v>0.504</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="D14">
-        <v>0.152</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.74</v>
+        <v>0.747</v>
       </c>
       <c r="F14">
-        <v>11607</v>
+        <v>8414</v>
       </c>
       <c r="G14">
-        <v>2215</v>
+        <v>1186</v>
       </c>
       <c r="H14">
-        <v>24815</v>
+        <v>12183</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>650</v>
-      </c>
-      <c r="C15">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0.747</v>
-      </c>
-      <c r="F15">
-        <v>8414</v>
-      </c>
-      <c r="G15">
-        <v>1186</v>
-      </c>
-      <c r="H15">
-        <v>12183</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>1196</v>
+      </c>
+      <c r="C17">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="D17">
         <v>0</v>
       </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" t="s">
-        <v>7</v>
+      <c r="E17">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="F17">
+        <v>12359</v>
+      </c>
+      <c r="G17">
+        <v>1240</v>
+      </c>
+      <c r="H17">
+        <v>11729</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>1196</v>
+        <v>914</v>
       </c>
       <c r="C18">
-        <v>0.51800000000000002</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.313</v>
       </c>
       <c r="E18">
-        <v>0.68400000000000005</v>
+        <v>0.78</v>
       </c>
       <c r="F18">
-        <v>12359</v>
+        <v>3394</v>
       </c>
       <c r="G18">
-        <v>1240</v>
+        <v>5624</v>
       </c>
       <c r="H18">
-        <v>11729</v>
+        <v>24368</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>914</v>
+        <v>1045</v>
       </c>
       <c r="C19">
-        <v>0.42499999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="D19">
-        <v>0.313</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.78</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="F19">
-        <v>3394</v>
+        <v>23924</v>
       </c>
       <c r="G19">
-        <v>5624</v>
+        <v>4643</v>
       </c>
       <c r="H19">
-        <v>24368</v>
+        <v>31419</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>1045</v>
-      </c>
-      <c r="C20">
-        <v>0.54</v>
-      </c>
-      <c r="D20">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
         <v>0</v>
       </c>
-      <c r="E20">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="F20">
-        <v>23924</v>
-      </c>
-      <c r="G20">
-        <v>4643</v>
-      </c>
-      <c r="H20">
-        <v>31419</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" t="s">
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>1048</v>
+      </c>
+      <c r="C22">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="D22">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="E22">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="F22">
+        <v>4599</v>
+      </c>
+      <c r="G22">
+        <v>6620</v>
+      </c>
+      <c r="H22">
+        <v>15475</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>1048</v>
+        <v>893</v>
       </c>
       <c r="C23">
-        <v>0.42399999999999999</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="D23">
-        <v>0.36799999999999999</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="E23">
-        <v>0.81399999999999995</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="F23">
-        <v>4599</v>
+        <v>7592</v>
       </c>
       <c r="G23">
-        <v>6620</v>
+        <v>1795</v>
       </c>
       <c r="H23">
-        <v>15475</v>
+        <v>17189</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>893</v>
+        <v>1541</v>
       </c>
       <c r="C24">
-        <v>0.49399999999999999</v>
+        <v>0.435</v>
       </c>
       <c r="D24">
-        <v>0.33500000000000002</v>
+        <v>0.371</v>
       </c>
       <c r="E24">
-        <v>0.79900000000000004</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="F24">
-        <v>7592</v>
+        <v>6606</v>
       </c>
       <c r="G24">
-        <v>1795</v>
+        <v>4714</v>
       </c>
       <c r="H24">
-        <v>17189</v>
+        <v>25728</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>1541</v>
-      </c>
-      <c r="C25">
-        <v>0.435</v>
-      </c>
-      <c r="D25">
-        <v>0.371</v>
-      </c>
-      <c r="E25">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="F25">
-        <v>6606</v>
-      </c>
-      <c r="G25">
-        <v>4714</v>
-      </c>
-      <c r="H25">
-        <v>25728</v>
-      </c>
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" t="s">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>1072</v>
+      </c>
+      <c r="C27">
+        <v>0.497</v>
+      </c>
+      <c r="D27">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="E27">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F27">
+        <v>6672</v>
+      </c>
+      <c r="G27">
+        <v>5633</v>
+      </c>
+      <c r="H27">
+        <v>32292</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>1072</v>
+        <v>911</v>
       </c>
       <c r="C28">
-        <v>0.497</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="D28">
-        <v>0.32700000000000001</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="E28">
-        <v>0.83499999999999996</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="F28">
-        <v>6672</v>
+        <v>11954</v>
       </c>
       <c r="G28">
-        <v>5633</v>
+        <v>1600</v>
       </c>
       <c r="H28">
-        <v>32292</v>
+        <v>6683</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>911</v>
+        <v>1178</v>
       </c>
       <c r="C29">
-        <v>0.52100000000000002</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="D29">
-        <v>0.23100000000000001</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="E29">
-        <v>0.58399999999999996</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="F29">
-        <v>11954</v>
+        <v>7494</v>
       </c>
       <c r="G29">
-        <v>1600</v>
+        <v>6135</v>
       </c>
       <c r="H29">
-        <v>6683</v>
+        <v>18940</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>1178</v>
-      </c>
-      <c r="C30">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="D30">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="E30">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="F30">
-        <v>7494</v>
-      </c>
-      <c r="G30">
-        <v>6135</v>
-      </c>
-      <c r="H30">
-        <v>18940</v>
-      </c>
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" t="s">
-        <v>7</v>
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>1383</v>
+      </c>
+      <c r="C32">
+        <v>0.504</v>
+      </c>
+      <c r="D32">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="E32">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="F32">
+        <v>10364</v>
+      </c>
+      <c r="G32">
+        <v>10154</v>
+      </c>
+      <c r="H32">
+        <v>37501</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>1383</v>
+        <v>831</v>
       </c>
       <c r="C33">
-        <v>0.504</v>
+        <v>0.44</v>
       </c>
       <c r="D33">
-        <v>0.34599999999999997</v>
+        <v>0.373</v>
       </c>
       <c r="E33">
-        <v>0.73399999999999999</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="F33">
-        <v>10364</v>
+        <v>8801</v>
       </c>
       <c r="G33">
-        <v>10154</v>
+        <v>1963</v>
       </c>
       <c r="H33">
-        <v>37501</v>
+        <v>14495</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>831</v>
+        <v>629</v>
       </c>
       <c r="C34">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="D34">
-        <v>0.373</v>
+        <v>0.39</v>
       </c>
       <c r="E34">
-        <v>0.82899999999999996</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="F34">
-        <v>8801</v>
+        <v>2418</v>
       </c>
       <c r="G34">
-        <v>1963</v>
+        <v>3586</v>
       </c>
       <c r="H34">
-        <v>14495</v>
+        <v>14537</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>629</v>
-      </c>
-      <c r="C35">
-        <v>0.47</v>
-      </c>
-      <c r="D35">
-        <v>0.39</v>
-      </c>
-      <c r="E35">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="F35">
-        <v>2418</v>
-      </c>
-      <c r="G35">
-        <v>3586</v>
-      </c>
-      <c r="H35">
-        <v>14537</v>
-      </c>
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" t="s">
-        <v>7</v>
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>979</v>
+      </c>
+      <c r="C37">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="D37">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E37">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="F37">
+        <v>3478</v>
+      </c>
+      <c r="G37">
+        <v>9061</v>
+      </c>
+      <c r="H37">
+        <v>18822</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>979</v>
+        <v>1068</v>
       </c>
       <c r="C38">
-        <v>0.45200000000000001</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="D38">
-        <v>0.28999999999999998</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="E38">
-        <v>0.75900000000000001</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="F38">
-        <v>3478</v>
+        <v>10482</v>
       </c>
       <c r="G38">
-        <v>9061</v>
+        <v>1437</v>
       </c>
       <c r="H38">
-        <v>18822</v>
+        <v>6254</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>1068</v>
+        <v>1026</v>
       </c>
       <c r="C39">
-        <v>0.47399999999999998</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="D39">
-        <v>0.13700000000000001</v>
+        <v>0.314</v>
       </c>
       <c r="E39">
-        <v>0.41399999999999998</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="F39">
-        <v>10482</v>
+        <v>6169</v>
       </c>
       <c r="G39">
-        <v>1437</v>
+        <v>4252</v>
       </c>
       <c r="H39">
-        <v>6254</v>
+        <v>17137</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>1026</v>
-      </c>
-      <c r="C40">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="D40">
-        <v>0.314</v>
-      </c>
-      <c r="E40">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="F40">
-        <v>6169</v>
-      </c>
-      <c r="G40">
-        <v>4252</v>
-      </c>
-      <c r="H40">
-        <v>17137</v>
-      </c>
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" t="s">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>1389</v>
+      </c>
+      <c r="C42">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="D42">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="E42">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="F42">
+        <v>4182</v>
+      </c>
+      <c r="G42">
+        <v>4141</v>
+      </c>
+      <c r="H42">
+        <v>25279</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>1389</v>
+        <v>991</v>
       </c>
       <c r="C43">
-        <v>0.47099999999999997</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D43">
-        <v>0.39500000000000002</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="E43">
-        <v>0.88300000000000001</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="F43">
-        <v>4182</v>
+        <v>4448</v>
       </c>
       <c r="G43">
-        <v>4141</v>
+        <v>2631</v>
       </c>
       <c r="H43">
-        <v>25279</v>
+        <v>13058</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>991</v>
+        <v>943</v>
       </c>
       <c r="C44">
-        <v>0.41399999999999998</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="D44">
-        <v>0.33900000000000002</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="E44">
-        <v>0.71499999999999997</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="F44">
-        <v>4448</v>
+        <v>4763</v>
       </c>
       <c r="G44">
-        <v>2631</v>
+        <v>2645</v>
       </c>
       <c r="H44">
-        <v>13058</v>
+        <v>13858</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45">
-        <v>943</v>
-      </c>
-      <c r="C45">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="D45">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="E45">
-        <v>0.72299999999999998</v>
-      </c>
-      <c r="F45">
-        <v>4763</v>
-      </c>
-      <c r="G45">
-        <v>2645</v>
-      </c>
-      <c r="H45">
-        <v>13858</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" t="s">
-        <v>7</v>
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>767</v>
+      </c>
+      <c r="C47">
+        <v>0.502</v>
+      </c>
+      <c r="D47">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="E47">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="F47">
+        <v>3575</v>
+      </c>
+      <c r="G47">
+        <v>2793</v>
+      </c>
+      <c r="H47">
+        <v>11931</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48">
-        <v>767</v>
+        <v>676</v>
       </c>
       <c r="C48">
-        <v>0.502</v>
+        <v>0.35</v>
       </c>
       <c r="D48">
-        <v>0.28399999999999997</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="E48">
-        <v>0.83099999999999996</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="F48">
-        <v>3575</v>
+        <v>6370</v>
       </c>
       <c r="G48">
-        <v>2793</v>
+        <v>3131</v>
       </c>
       <c r="H48">
-        <v>11931</v>
+        <v>14962</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="C49">
-        <v>0.35</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="D49">
-        <v>0.28699999999999998</v>
+        <v>0.34</v>
       </c>
       <c r="E49">
-        <v>0.71399999999999997</v>
+        <v>0.82</v>
       </c>
       <c r="F49">
-        <v>6370</v>
+        <v>4189</v>
       </c>
       <c r="G49">
-        <v>3131</v>
+        <v>1879</v>
       </c>
       <c r="H49">
-        <v>14962</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50">
-        <v>688</v>
-      </c>
-      <c r="C50">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="D50">
-        <v>0.34</v>
-      </c>
-      <c r="E50">
-        <v>0.82</v>
-      </c>
-      <c r="F50">
-        <v>4189</v>
-      </c>
-      <c r="G50">
-        <v>1879</v>
-      </c>
-      <c r="H50">
         <v>14234</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A26:C26"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
